--- a/Code/Results/Cases/Case_3_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020824938173913</v>
+        <v>1.065017227438009</v>
       </c>
       <c r="D2">
-        <v>1.036700639857002</v>
+        <v>1.064521878082556</v>
       </c>
       <c r="E2">
-        <v>1.033858724128786</v>
+        <v>1.069321204400903</v>
       </c>
       <c r="F2">
-        <v>1.044463631588545</v>
+        <v>1.077885431701603</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050928649230188</v>
+        <v>1.045280637023585</v>
       </c>
       <c r="J2">
-        <v>1.042400132288937</v>
+        <v>1.069974499192607</v>
       </c>
       <c r="K2">
-        <v>1.047671301179088</v>
+        <v>1.067237589073905</v>
       </c>
       <c r="L2">
-        <v>1.044865676352741</v>
+        <v>1.072024024188067</v>
       </c>
       <c r="M2">
-        <v>1.055336415252353</v>
+        <v>1.080565555766972</v>
       </c>
       <c r="N2">
-        <v>1.043880460041754</v>
+        <v>1.071493985709251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027843189997054</v>
+        <v>1.066456007069047</v>
       </c>
       <c r="D3">
-        <v>1.041916278424399</v>
+        <v>1.065600904426902</v>
       </c>
       <c r="E3">
-        <v>1.039702617762733</v>
+        <v>1.070561642044949</v>
       </c>
       <c r="F3">
-        <v>1.050268192674999</v>
+        <v>1.079113077715598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052836604444016</v>
+        <v>1.045590827535343</v>
       </c>
       <c r="J3">
-        <v>1.047602564021594</v>
+        <v>1.071066400562702</v>
       </c>
       <c r="K3">
-        <v>1.052039516942392</v>
+        <v>1.068131176136955</v>
       </c>
       <c r="L3">
-        <v>1.049851500123105</v>
+        <v>1.073079557480332</v>
       </c>
       <c r="M3">
-        <v>1.060295879700563</v>
+        <v>1.081609979979161</v>
       </c>
       <c r="N3">
-        <v>1.049090279824199</v>
+        <v>1.072587437704535</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03226215284381</v>
+        <v>1.067386365947234</v>
       </c>
       <c r="D4">
-        <v>1.045202790471039</v>
+        <v>1.066298355658953</v>
       </c>
       <c r="E4">
-        <v>1.043388000993526</v>
+        <v>1.071363927145318</v>
       </c>
       <c r="F4">
-        <v>1.053928730850772</v>
+        <v>1.079907018369774</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054026338831617</v>
+        <v>1.045789877815952</v>
       </c>
       <c r="J4">
-        <v>1.050875105677971</v>
+        <v>1.071771845065586</v>
       </c>
       <c r="K4">
-        <v>1.054784630492027</v>
+        <v>1.068708038694126</v>
       </c>
       <c r="L4">
-        <v>1.052989521901137</v>
+        <v>1.073761631195808</v>
       </c>
       <c r="M4">
-        <v>1.063417098880415</v>
+        <v>1.082284792841264</v>
       </c>
       <c r="N4">
-        <v>1.052367468865094</v>
+        <v>1.073293884019528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034092106419317</v>
+        <v>1.067777343295834</v>
       </c>
       <c r="D5">
-        <v>1.046564286129352</v>
+        <v>1.066591386992807</v>
       </c>
       <c r="E5">
-        <v>1.044915482239281</v>
+        <v>1.071701124580298</v>
       </c>
       <c r="F5">
-        <v>1.055445888826203</v>
+        <v>1.080240691467696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054516182978471</v>
+        <v>1.045873161244281</v>
       </c>
       <c r="J5">
-        <v>1.052229499704187</v>
+        <v>1.07206815654552</v>
       </c>
       <c r="K5">
-        <v>1.055920072100843</v>
+        <v>1.068950231503036</v>
       </c>
       <c r="L5">
-        <v>1.0542886465492</v>
+        <v>1.074048156036818</v>
       </c>
       <c r="M5">
-        <v>1.064709202565916</v>
+        <v>1.0825682476869</v>
       </c>
       <c r="N5">
-        <v>1.053723786286178</v>
+        <v>1.073590616295751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034397776385328</v>
+        <v>1.06784298171759</v>
       </c>
       <c r="D6">
-        <v>1.046791733086243</v>
+        <v>1.066640577930054</v>
       </c>
       <c r="E6">
-        <v>1.045170702881583</v>
+        <v>1.071757736726115</v>
       </c>
       <c r="F6">
-        <v>1.05569938263383</v>
+        <v>1.080296710898442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054597836276475</v>
+        <v>1.045887121628585</v>
       </c>
       <c r="J6">
-        <v>1.052455684151719</v>
+        <v>1.072117893547569</v>
       </c>
       <c r="K6">
-        <v>1.056109651362994</v>
+        <v>1.068990878036818</v>
       </c>
       <c r="L6">
-        <v>1.054505624386489</v>
+        <v>1.07409625206477</v>
       </c>
       <c r="M6">
-        <v>1.064925003575435</v>
+        <v>1.082615827216131</v>
       </c>
       <c r="N6">
-        <v>1.053950291941568</v>
+        <v>1.073640423930047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032286712017144</v>
+        <v>1.067391590771593</v>
       </c>
       <c r="D7">
-        <v>1.045221060766802</v>
+        <v>1.066302271850868</v>
       </c>
       <c r="E7">
-        <v>1.043408495708963</v>
+        <v>1.071368433116974</v>
       </c>
       <c r="F7">
-        <v>1.053949087177747</v>
+        <v>1.079911477313483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054032924178013</v>
+        <v>1.04579099221313</v>
       </c>
       <c r="J7">
-        <v>1.0508932858204</v>
+        <v>1.071775805401421</v>
       </c>
       <c r="K7">
-        <v>1.054799874294831</v>
+        <v>1.068711276141393</v>
       </c>
       <c r="L7">
-        <v>1.053006958576177</v>
+        <v>1.073765460611415</v>
       </c>
       <c r="M7">
-        <v>1.063434441595019</v>
+        <v>1.082288581304544</v>
       </c>
       <c r="N7">
-        <v>1.052385674825409</v>
+        <v>1.073297849979494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023223057799354</v>
+        <v>1.065503602600475</v>
       </c>
       <c r="D8">
-        <v>1.0384822084653</v>
+        <v>1.064886697159704</v>
       </c>
       <c r="E8">
-        <v>1.035854281549792</v>
+        <v>1.069740492789738</v>
       </c>
       <c r="F8">
-        <v>1.046445756182733</v>
+        <v>1.078300410938949</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051582995677883</v>
+        <v>1.045385812440761</v>
       </c>
       <c r="J8">
-        <v>1.044178405124293</v>
+        <v>1.070343739752837</v>
       </c>
       <c r="K8">
-        <v>1.049164972447098</v>
+        <v>1.067539861637087</v>
       </c>
       <c r="L8">
-        <v>1.046569535364202</v>
+        <v>1.072380940309811</v>
       </c>
       <c r="M8">
-        <v>1.0570313022021</v>
+        <v>1.080918732441391</v>
       </c>
       <c r="N8">
-        <v>1.045661258228506</v>
+        <v>1.071863750633429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006240858950072</v>
+        <v>1.062171704826846</v>
       </c>
       <c r="D9">
-        <v>1.025881779771971</v>
+        <v>1.062386404283303</v>
       </c>
       <c r="E9">
-        <v>1.021751973416384</v>
+        <v>1.066868945097505</v>
       </c>
       <c r="F9">
-        <v>1.032438926618453</v>
+        <v>1.075458089717916</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046902103713083</v>
+        <v>1.044659047186236</v>
       </c>
       <c r="J9">
-        <v>1.031575144986374</v>
+        <v>1.067811773073609</v>
       </c>
       <c r="K9">
-        <v>1.03856844967216</v>
+        <v>1.065465242407377</v>
       </c>
       <c r="L9">
-        <v>1.034501729510935</v>
+        <v>1.069934006832449</v>
       </c>
       <c r="M9">
-        <v>1.045026749921541</v>
+        <v>1.07849710382121</v>
       </c>
       <c r="N9">
-        <v>1.033040100015578</v>
+        <v>1.069328188271096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.994124560031253</v>
+        <v>1.059946763193781</v>
       </c>
       <c r="D10">
-        <v>1.016917674257157</v>
+        <v>1.060715428827481</v>
       </c>
       <c r="E10">
-        <v>1.011732724987056</v>
+        <v>1.064952420622922</v>
       </c>
       <c r="F10">
-        <v>1.02248911362235</v>
+        <v>1.073560720224644</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04350531706116</v>
+        <v>1.044165876392784</v>
       </c>
       <c r="J10">
-        <v>1.022573244088167</v>
+        <v>1.066117885058849</v>
       </c>
       <c r="K10">
-        <v>1.030988048535856</v>
+        <v>1.064074985559167</v>
       </c>
       <c r="L10">
-        <v>1.025893324180353</v>
+        <v>1.068297667825993</v>
       </c>
       <c r="M10">
-        <v>1.036463854784052</v>
+        <v>1.076877276469491</v>
       </c>
       <c r="N10">
-        <v>1.024025415385563</v>
+        <v>1.067631894741063</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9886598689978197</v>
+        <v>1.058982399529594</v>
       </c>
       <c r="D11">
-        <v>1.012882939251618</v>
+        <v>1.059990864360917</v>
       </c>
       <c r="E11">
-        <v>1.007225709990187</v>
+        <v>1.064121986196017</v>
       </c>
       <c r="F11">
-        <v>1.018014034666582</v>
+        <v>1.07273850460689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041960859089243</v>
+        <v>1.043950259285425</v>
       </c>
       <c r="J11">
-        <v>1.018512140519912</v>
+        <v>1.065382964545046</v>
       </c>
       <c r="K11">
-        <v>1.027565924138254</v>
+        <v>1.063471250381336</v>
       </c>
       <c r="L11">
-        <v>1.022012634474886</v>
+        <v>1.067587874755208</v>
       </c>
       <c r="M11">
-        <v>1.032604044926241</v>
+        <v>1.07617455038904</v>
       </c>
       <c r="N11">
-        <v>1.019958544584426</v>
+        <v>1.066895930555834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9865943647158761</v>
+        <v>1.05862404342732</v>
       </c>
       <c r="D12">
-        <v>1.011359358118352</v>
+        <v>1.059721572086583</v>
       </c>
       <c r="E12">
-        <v>1.00552413600654</v>
+        <v>1.06381343668542</v>
       </c>
       <c r="F12">
-        <v>1.016324653783586</v>
+        <v>1.072432996815136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041375332572954</v>
+        <v>1.043869857048847</v>
       </c>
       <c r="J12">
-        <v>1.016977114323654</v>
+        <v>1.065109759529659</v>
       </c>
       <c r="K12">
-        <v>1.026272119277359</v>
+        <v>1.063246730907779</v>
       </c>
       <c r="L12">
-        <v>1.020546262064414</v>
+        <v>1.067324034843306</v>
       </c>
       <c r="M12">
-        <v>1.031145642574712</v>
+        <v>1.075913323239736</v>
       </c>
       <c r="N12">
-        <v>1.018421338474899</v>
+        <v>1.066622337557988</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9870390868258246</v>
+        <v>1.058700918842414</v>
       </c>
       <c r="D13">
-        <v>1.011687330840338</v>
+        <v>1.059779343342025</v>
       </c>
       <c r="E13">
-        <v>1.005890409374803</v>
+        <v>1.063879625704152</v>
       </c>
       <c r="F13">
-        <v>1.016688295853802</v>
+        <v>1.072498533874211</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041501479640631</v>
+        <v>1.04388711776138</v>
       </c>
       <c r="J13">
-        <v>1.017307619340317</v>
+        <v>1.065168373081646</v>
       </c>
       <c r="K13">
-        <v>1.026550699993758</v>
+        <v>1.06329490315631</v>
       </c>
       <c r="L13">
-        <v>1.020861964068249</v>
+        <v>1.067380638110817</v>
       </c>
       <c r="M13">
-        <v>1.03145962460398</v>
+        <v>1.075969366611327</v>
       </c>
       <c r="N13">
-        <v>1.018752312846595</v>
+        <v>1.066681034347942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9884898794230029</v>
+        <v>1.058952780765867</v>
       </c>
       <c r="D14">
-        <v>1.01275751917899</v>
+        <v>1.059968607795129</v>
       </c>
       <c r="E14">
-        <v>1.007085630916804</v>
+        <v>1.064096483240175</v>
       </c>
       <c r="F14">
-        <v>1.017874956421525</v>
+        <v>1.072713253305907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041912705797267</v>
+        <v>1.043943619592826</v>
       </c>
       <c r="J14">
-        <v>1.018385808993983</v>
+        <v>1.065360385902346</v>
       </c>
       <c r="K14">
-        <v>1.027459450790654</v>
+        <v>1.063452696963267</v>
       </c>
       <c r="L14">
-        <v>1.021891943604231</v>
+        <v>1.067566069587149</v>
       </c>
       <c r="M14">
-        <v>1.032484008251175</v>
+        <v>1.076152961441203</v>
       </c>
       <c r="N14">
-        <v>1.01983203365324</v>
+        <v>1.066873319848872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9893789412865989</v>
+        <v>1.05910794135531</v>
       </c>
       <c r="D15">
-        <v>1.013413537984477</v>
+        <v>1.060085198996559</v>
       </c>
       <c r="E15">
-        <v>1.007818338535526</v>
+        <v>1.064230084385265</v>
       </c>
       <c r="F15">
-        <v>1.018602434758866</v>
+        <v>1.07284553562835</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042164481096379</v>
+        <v>1.043978390794884</v>
       </c>
       <c r="J15">
-        <v>1.019046534185909</v>
+        <v>1.065478661690536</v>
       </c>
       <c r="K15">
-        <v>1.028016303950296</v>
+        <v>1.063549883678081</v>
       </c>
       <c r="L15">
-        <v>1.022523186550689</v>
+        <v>1.067680294596634</v>
       </c>
       <c r="M15">
-        <v>1.033111833019183</v>
+        <v>1.0762660532169</v>
       </c>
       <c r="N15">
-        <v>1.020493697150725</v>
+        <v>1.066991763602247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9944823966311429</v>
+        <v>1.06001074433281</v>
       </c>
       <c r="D16">
-        <v>1.017182062396448</v>
+        <v>1.060763493985261</v>
       </c>
       <c r="E16">
-        <v>1.012028111418626</v>
+        <v>1.065007521536212</v>
       </c>
       <c r="F16">
-        <v>1.022782424048177</v>
+        <v>1.073615274112207</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043606201463115</v>
+        <v>1.044180142446692</v>
       </c>
       <c r="J16">
-        <v>1.022839159311575</v>
+        <v>1.066166628291537</v>
       </c>
       <c r="K16">
-        <v>1.031212080146959</v>
+        <v>1.064115016440113</v>
       </c>
       <c r="L16">
-        <v>1.026147488223901</v>
+        <v>1.068344747852533</v>
       </c>
       <c r="M16">
-        <v>1.036716660953864</v>
+        <v>1.076923885757473</v>
       </c>
       <c r="N16">
-        <v>1.024291708239089</v>
+        <v>1.067680707194732</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.997623293734807</v>
+        <v>1.060576790500691</v>
       </c>
       <c r="D17">
-        <v>1.019503674229955</v>
+        <v>1.061188694772217</v>
       </c>
       <c r="E17">
-        <v>1.014622214719543</v>
+        <v>1.065495032750744</v>
       </c>
       <c r="F17">
-        <v>1.025358378509024</v>
+        <v>1.07409793611743</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04449031598498</v>
+        <v>1.044306140564179</v>
       </c>
       <c r="J17">
-        <v>1.0251731126402</v>
+        <v>1.066597778915736</v>
       </c>
       <c r="K17">
-        <v>1.033178162164718</v>
+        <v>1.064469039899362</v>
       </c>
       <c r="L17">
-        <v>1.028378630582199</v>
+        <v>1.068761205203377</v>
       </c>
       <c r="M17">
-        <v>1.038935927384972</v>
+        <v>1.077336168108797</v>
       </c>
       <c r="N17">
-        <v>1.026628976049149</v>
+        <v>1.068112470102272</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9994344794288017</v>
+        <v>1.06090686446417</v>
       </c>
       <c r="D18">
-        <v>1.020843185636539</v>
+        <v>1.061436608908673</v>
       </c>
       <c r="E18">
-        <v>1.016119198950638</v>
+        <v>1.06577933539337</v>
       </c>
       <c r="F18">
-        <v>1.026844953558387</v>
+        <v>1.074379403006219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044998958569138</v>
+        <v>1.044379433412178</v>
       </c>
       <c r="J18">
-        <v>1.026518868487265</v>
+        <v>1.066849121592768</v>
       </c>
       <c r="K18">
-        <v>1.034311582649456</v>
+        <v>1.064675367665563</v>
       </c>
       <c r="L18">
-        <v>1.029665376207531</v>
+        <v>1.069003997620911</v>
       </c>
       <c r="M18">
-        <v>1.040215856386253</v>
+        <v>1.077576517331142</v>
       </c>
       <c r="N18">
-        <v>1.027976643023878</v>
+        <v>1.068364169714734</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000048593212942</v>
+        <v>1.061019395865715</v>
       </c>
       <c r="D19">
-        <v>1.021297494008668</v>
+        <v>1.061521124652177</v>
       </c>
       <c r="E19">
-        <v>1.016626959915086</v>
+        <v>1.065876266141974</v>
       </c>
       <c r="F19">
-        <v>1.027349193839014</v>
+        <v>1.074475365592551</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045171219741611</v>
+        <v>1.044404390542375</v>
       </c>
       <c r="J19">
-        <v>1.026975148379415</v>
+        <v>1.066934799295234</v>
       </c>
       <c r="K19">
-        <v>1.034695831230882</v>
+        <v>1.064745691680989</v>
       </c>
       <c r="L19">
-        <v>1.030101693788075</v>
+        <v>1.069086763300865</v>
       </c>
       <c r="M19">
-        <v>1.040649867330629</v>
+        <v>1.077658448583993</v>
       </c>
       <c r="N19">
-        <v>1.028433570885809</v>
+        <v>1.068449969089365</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.997288481217764</v>
+        <v>1.060516068580253</v>
       </c>
       <c r="D20">
-        <v>1.019256115025254</v>
+        <v>1.061143084943833</v>
       </c>
       <c r="E20">
-        <v>1.014345573220535</v>
+        <v>1.065442733068745</v>
       </c>
       <c r="F20">
-        <v>1.025083665591833</v>
+        <v>1.074046157462349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044396193098739</v>
+        <v>1.044292642826805</v>
       </c>
       <c r="J20">
-        <v>1.024924329005534</v>
+        <v>1.066551535065273</v>
       </c>
       <c r="K20">
-        <v>1.032968613773189</v>
+        <v>1.06443107394721</v>
       </c>
       <c r="L20">
-        <v>1.028140777622344</v>
+        <v>1.068716535722688</v>
       </c>
       <c r="M20">
-        <v>1.038699336922324</v>
+        <v>1.077291947390972</v>
       </c>
       <c r="N20">
-        <v>1.026379839113185</v>
+        <v>1.068066160580236</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9880636668468635</v>
+        <v>1.058878617853607</v>
       </c>
       <c r="D21">
-        <v>1.012443078968677</v>
+        <v>1.059912878485749</v>
       </c>
       <c r="E21">
-        <v>1.006734444599796</v>
+        <v>1.064032626595566</v>
       </c>
       <c r="F21">
-        <v>1.017526281536691</v>
+        <v>1.07265002658474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041791943705051</v>
+        <v>1.043926989847267</v>
       </c>
       <c r="J21">
-        <v>1.018069059449897</v>
+        <v>1.065303849096189</v>
       </c>
       <c r="K21">
-        <v>1.027192486734729</v>
+        <v>1.063406237970801</v>
       </c>
       <c r="L21">
-        <v>1.021589344308656</v>
+        <v>1.067511469946285</v>
       </c>
       <c r="M21">
-        <v>1.032183050555575</v>
+        <v>1.076098902983109</v>
       </c>
       <c r="N21">
-        <v>1.019514834288469</v>
+        <v>1.066816702753965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9820555668919662</v>
+        <v>1.05784822548689</v>
       </c>
       <c r="D22">
-        <v>1.008014287528433</v>
+        <v>1.059138490152263</v>
       </c>
       <c r="E22">
-        <v>1.001788859553255</v>
+        <v>1.063145518643713</v>
       </c>
       <c r="F22">
-        <v>1.012616430777403</v>
+        <v>1.071771641457792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040085553995173</v>
+        <v>1.043695280954021</v>
       </c>
       <c r="J22">
-        <v>1.013604075400667</v>
+        <v>1.0645180882296</v>
       </c>
       <c r="K22">
-        <v>1.02342863429813</v>
+        <v>1.062760346095205</v>
       </c>
       <c r="L22">
-        <v>1.017324961886957</v>
+        <v>1.066752689391985</v>
       </c>
       <c r="M22">
-        <v>1.027942029592036</v>
+        <v>1.075347610061107</v>
       </c>
       <c r="N22">
-        <v>1.015043509449748</v>
+        <v>1.066029826016818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9852613551668842</v>
+        <v>1.05839453966496</v>
       </c>
       <c r="D23">
-        <v>1.01037652032059</v>
+        <v>1.059549095323443</v>
       </c>
       <c r="E23">
-        <v>1.004426569410708</v>
+        <v>1.063615841816378</v>
       </c>
       <c r="F23">
-        <v>1.015234994542416</v>
+        <v>1.072237346506941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040996969667178</v>
+        <v>1.043818286073557</v>
       </c>
       <c r="J23">
-        <v>1.015986463112749</v>
+        <v>1.064934758692391</v>
       </c>
       <c r="K23">
-        <v>1.025437064814503</v>
+        <v>1.063102892348974</v>
       </c>
       <c r="L23">
-        <v>1.019600050848722</v>
+        <v>1.067155039587934</v>
       </c>
       <c r="M23">
-        <v>1.030204600297034</v>
+        <v>1.075745997558495</v>
       </c>
       <c r="N23">
-        <v>1.017429280425645</v>
+        <v>1.066447088199458</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974398327904297</v>
+        <v>1.06054350648376</v>
       </c>
       <c r="D24">
-        <v>1.019368021493591</v>
+        <v>1.061163694365592</v>
       </c>
       <c r="E24">
-        <v>1.014470625240002</v>
+        <v>1.065466365211736</v>
       </c>
       <c r="F24">
-        <v>1.025207845625752</v>
+        <v>1.074069554198259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04443874489706</v>
+        <v>1.044298742490378</v>
       </c>
       <c r="J24">
-        <v>1.025036791678554</v>
+        <v>1.066572431103697</v>
       </c>
       <c r="K24">
-        <v>1.033063340839412</v>
+        <v>1.0644482296461</v>
       </c>
       <c r="L24">
-        <v>1.028248298244345</v>
+        <v>1.068736720309172</v>
       </c>
       <c r="M24">
-        <v>1.038806286737841</v>
+        <v>1.07731192922554</v>
       </c>
       <c r="N24">
-        <v>1.0264924614961</v>
+        <v>1.068087086293432</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010762091987327</v>
+        <v>1.063033706169958</v>
       </c>
       <c r="D25">
-        <v>1.029232644936543</v>
+        <v>1.06303350263614</v>
       </c>
       <c r="E25">
-        <v>1.025499803324347</v>
+        <v>1.06761167461338</v>
       </c>
       <c r="F25">
-        <v>1.036161205098685</v>
+        <v>1.07619332241316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048158398166174</v>
+        <v>1.044848455236036</v>
       </c>
       <c r="J25">
-        <v>1.034932618769582</v>
+        <v>1.068467373700393</v>
       </c>
       <c r="K25">
-        <v>1.041393498525526</v>
+        <v>1.066002834481693</v>
       </c>
       <c r="L25">
-        <v>1.0377147563231</v>
+        <v>1.070567474064155</v>
       </c>
       <c r="M25">
-        <v>1.048222950992645</v>
+        <v>1.079124093036629</v>
       </c>
       <c r="N25">
-        <v>1.036402341796665</v>
+        <v>1.069984719925969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065017227438009</v>
+        <v>1.020824938173913</v>
       </c>
       <c r="D2">
-        <v>1.064521878082556</v>
+        <v>1.036700639857002</v>
       </c>
       <c r="E2">
-        <v>1.069321204400903</v>
+        <v>1.033858724128786</v>
       </c>
       <c r="F2">
-        <v>1.077885431701603</v>
+        <v>1.044463631588545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045280637023585</v>
+        <v>1.050928649230188</v>
       </c>
       <c r="J2">
-        <v>1.069974499192607</v>
+        <v>1.042400132288938</v>
       </c>
       <c r="K2">
-        <v>1.067237589073905</v>
+        <v>1.047671301179089</v>
       </c>
       <c r="L2">
-        <v>1.072024024188067</v>
+        <v>1.044865676352741</v>
       </c>
       <c r="M2">
-        <v>1.080565555766972</v>
+        <v>1.055336415252354</v>
       </c>
       <c r="N2">
-        <v>1.071493985709251</v>
+        <v>1.043880460041754</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066456007069047</v>
+        <v>1.027843189997055</v>
       </c>
       <c r="D3">
-        <v>1.065600904426902</v>
+        <v>1.0419162784244</v>
       </c>
       <c r="E3">
-        <v>1.070561642044949</v>
+        <v>1.039702617762734</v>
       </c>
       <c r="F3">
-        <v>1.079113077715598</v>
+        <v>1.050268192674999</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045590827535343</v>
+        <v>1.052836604444016</v>
       </c>
       <c r="J3">
-        <v>1.071066400562702</v>
+        <v>1.047602564021595</v>
       </c>
       <c r="K3">
-        <v>1.068131176136955</v>
+        <v>1.052039516942393</v>
       </c>
       <c r="L3">
-        <v>1.073079557480332</v>
+        <v>1.049851500123106</v>
       </c>
       <c r="M3">
-        <v>1.081609979979161</v>
+        <v>1.060295879700563</v>
       </c>
       <c r="N3">
-        <v>1.072587437704535</v>
+        <v>1.0490902798242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067386365947234</v>
+        <v>1.032262152843811</v>
       </c>
       <c r="D4">
-        <v>1.066298355658953</v>
+        <v>1.04520279047104</v>
       </c>
       <c r="E4">
-        <v>1.071363927145318</v>
+        <v>1.043388000993527</v>
       </c>
       <c r="F4">
-        <v>1.079907018369774</v>
+        <v>1.053928730850773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045789877815952</v>
+        <v>1.054026338831618</v>
       </c>
       <c r="J4">
-        <v>1.071771845065586</v>
+        <v>1.050875105677972</v>
       </c>
       <c r="K4">
-        <v>1.068708038694126</v>
+        <v>1.054784630492028</v>
       </c>
       <c r="L4">
-        <v>1.073761631195808</v>
+        <v>1.052989521901137</v>
       </c>
       <c r="M4">
-        <v>1.082284792841264</v>
+        <v>1.063417098880416</v>
       </c>
       <c r="N4">
-        <v>1.073293884019528</v>
+        <v>1.052367468865095</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067777343295834</v>
+        <v>1.034092106419316</v>
       </c>
       <c r="D5">
-        <v>1.066591386992807</v>
+        <v>1.046564286129352</v>
       </c>
       <c r="E5">
-        <v>1.071701124580298</v>
+        <v>1.04491548223928</v>
       </c>
       <c r="F5">
-        <v>1.080240691467696</v>
+        <v>1.055445888826203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045873161244281</v>
+        <v>1.054516182978471</v>
       </c>
       <c r="J5">
-        <v>1.07206815654552</v>
+        <v>1.052229499704187</v>
       </c>
       <c r="K5">
-        <v>1.068950231503036</v>
+        <v>1.055920072100842</v>
       </c>
       <c r="L5">
-        <v>1.074048156036818</v>
+        <v>1.054288646549199</v>
       </c>
       <c r="M5">
-        <v>1.0825682476869</v>
+        <v>1.064709202565916</v>
       </c>
       <c r="N5">
-        <v>1.073590616295751</v>
+        <v>1.053723786286177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06784298171759</v>
+        <v>1.034397776385327</v>
       </c>
       <c r="D6">
-        <v>1.066640577930054</v>
+        <v>1.046791733086243</v>
       </c>
       <c r="E6">
-        <v>1.071757736726115</v>
+        <v>1.045170702881582</v>
       </c>
       <c r="F6">
-        <v>1.080296710898442</v>
+        <v>1.055699382633828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045887121628585</v>
+        <v>1.054597836276474</v>
       </c>
       <c r="J6">
-        <v>1.072117893547569</v>
+        <v>1.052455684151718</v>
       </c>
       <c r="K6">
-        <v>1.068990878036818</v>
+        <v>1.056109651362993</v>
       </c>
       <c r="L6">
-        <v>1.07409625206477</v>
+        <v>1.054505624386489</v>
       </c>
       <c r="M6">
-        <v>1.082615827216131</v>
+        <v>1.064925003575434</v>
       </c>
       <c r="N6">
-        <v>1.073640423930047</v>
+        <v>1.053950291941567</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067391590771593</v>
+        <v>1.032286712017144</v>
       </c>
       <c r="D7">
-        <v>1.066302271850868</v>
+        <v>1.045221060766802</v>
       </c>
       <c r="E7">
-        <v>1.071368433116974</v>
+        <v>1.043408495708964</v>
       </c>
       <c r="F7">
-        <v>1.079911477313483</v>
+        <v>1.053949087177748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04579099221313</v>
+        <v>1.054032924178014</v>
       </c>
       <c r="J7">
-        <v>1.071775805401421</v>
+        <v>1.0508932858204</v>
       </c>
       <c r="K7">
-        <v>1.068711276141393</v>
+        <v>1.054799874294832</v>
       </c>
       <c r="L7">
-        <v>1.073765460611415</v>
+        <v>1.053006958576178</v>
       </c>
       <c r="M7">
-        <v>1.082288581304544</v>
+        <v>1.06343444159502</v>
       </c>
       <c r="N7">
-        <v>1.073297849979494</v>
+        <v>1.05238567482541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065503602600475</v>
+        <v>1.023223057799353</v>
       </c>
       <c r="D8">
-        <v>1.064886697159704</v>
+        <v>1.038482208465299</v>
       </c>
       <c r="E8">
-        <v>1.069740492789738</v>
+        <v>1.035854281549791</v>
       </c>
       <c r="F8">
-        <v>1.078300410938949</v>
+        <v>1.046445756182733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045385812440761</v>
+        <v>1.051582995677883</v>
       </c>
       <c r="J8">
-        <v>1.070343739752837</v>
+        <v>1.044178405124292</v>
       </c>
       <c r="K8">
-        <v>1.067539861637087</v>
+        <v>1.049164972447098</v>
       </c>
       <c r="L8">
-        <v>1.072380940309811</v>
+        <v>1.046569535364202</v>
       </c>
       <c r="M8">
-        <v>1.080918732441391</v>
+        <v>1.057031302202099</v>
       </c>
       <c r="N8">
-        <v>1.071863750633429</v>
+        <v>1.045661258228505</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062171704826846</v>
+        <v>1.006240858950072</v>
       </c>
       <c r="D9">
-        <v>1.062386404283303</v>
+        <v>1.02588177977197</v>
       </c>
       <c r="E9">
-        <v>1.066868945097505</v>
+        <v>1.021751973416383</v>
       </c>
       <c r="F9">
-        <v>1.075458089717916</v>
+        <v>1.032438926618453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044659047186236</v>
+        <v>1.046902103713083</v>
       </c>
       <c r="J9">
-        <v>1.067811773073609</v>
+        <v>1.031575144986373</v>
       </c>
       <c r="K9">
-        <v>1.065465242407377</v>
+        <v>1.03856844967216</v>
       </c>
       <c r="L9">
-        <v>1.069934006832449</v>
+        <v>1.034501729510934</v>
       </c>
       <c r="M9">
-        <v>1.07849710382121</v>
+        <v>1.04502674992154</v>
       </c>
       <c r="N9">
-        <v>1.069328188271096</v>
+        <v>1.033040100015577</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059946763193781</v>
+        <v>0.9941245600312534</v>
       </c>
       <c r="D10">
-        <v>1.060715428827481</v>
+        <v>1.016917674257157</v>
       </c>
       <c r="E10">
-        <v>1.064952420622922</v>
+        <v>1.011732724987056</v>
       </c>
       <c r="F10">
-        <v>1.073560720224644</v>
+        <v>1.02248911362235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044165876392784</v>
+        <v>1.04350531706116</v>
       </c>
       <c r="J10">
-        <v>1.066117885058849</v>
+        <v>1.022573244088167</v>
       </c>
       <c r="K10">
-        <v>1.064074985559167</v>
+        <v>1.030988048535856</v>
       </c>
       <c r="L10">
-        <v>1.068297667825993</v>
+        <v>1.025893324180353</v>
       </c>
       <c r="M10">
-        <v>1.076877276469491</v>
+        <v>1.036463854784052</v>
       </c>
       <c r="N10">
-        <v>1.067631894741063</v>
+        <v>1.024025415385563</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058982399529594</v>
+        <v>0.9886598689978175</v>
       </c>
       <c r="D11">
-        <v>1.059990864360917</v>
+        <v>1.012882939251616</v>
       </c>
       <c r="E11">
-        <v>1.064121986196017</v>
+        <v>1.007225709990185</v>
       </c>
       <c r="F11">
-        <v>1.07273850460689</v>
+        <v>1.01801403466658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043950259285425</v>
+        <v>1.041960859089242</v>
       </c>
       <c r="J11">
-        <v>1.065382964545046</v>
+        <v>1.01851214051991</v>
       </c>
       <c r="K11">
-        <v>1.063471250381336</v>
+        <v>1.027565924138252</v>
       </c>
       <c r="L11">
-        <v>1.067587874755208</v>
+        <v>1.022012634474884</v>
       </c>
       <c r="M11">
-        <v>1.07617455038904</v>
+        <v>1.032604044926239</v>
       </c>
       <c r="N11">
-        <v>1.066895930555834</v>
+        <v>1.019958544584424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05862404342732</v>
+        <v>0.9865943647158733</v>
       </c>
       <c r="D12">
-        <v>1.059721572086583</v>
+        <v>1.011359358118349</v>
       </c>
       <c r="E12">
-        <v>1.06381343668542</v>
+        <v>1.005524136006537</v>
       </c>
       <c r="F12">
-        <v>1.072432996815136</v>
+        <v>1.016324653783584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043869857048847</v>
+        <v>1.041375332572953</v>
       </c>
       <c r="J12">
-        <v>1.065109759529659</v>
+        <v>1.016977114323651</v>
       </c>
       <c r="K12">
-        <v>1.063246730907779</v>
+        <v>1.026272119277356</v>
       </c>
       <c r="L12">
-        <v>1.067324034843306</v>
+        <v>1.020546262064412</v>
       </c>
       <c r="M12">
-        <v>1.075913323239736</v>
+        <v>1.03114564257471</v>
       </c>
       <c r="N12">
-        <v>1.066622337557988</v>
+        <v>1.018421338474896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058700918842414</v>
+        <v>0.9870390868258242</v>
       </c>
       <c r="D13">
-        <v>1.059779343342025</v>
+        <v>1.011687330840338</v>
       </c>
       <c r="E13">
-        <v>1.063879625704152</v>
+        <v>1.005890409374803</v>
       </c>
       <c r="F13">
-        <v>1.072498533874211</v>
+        <v>1.016688295853802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04388711776138</v>
+        <v>1.041501479640631</v>
       </c>
       <c r="J13">
-        <v>1.065168373081646</v>
+        <v>1.017307619340316</v>
       </c>
       <c r="K13">
-        <v>1.06329490315631</v>
+        <v>1.026550699993758</v>
       </c>
       <c r="L13">
-        <v>1.067380638110817</v>
+        <v>1.020861964068249</v>
       </c>
       <c r="M13">
-        <v>1.075969366611327</v>
+        <v>1.03145962460398</v>
       </c>
       <c r="N13">
-        <v>1.066681034347942</v>
+        <v>1.018752312846594</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058952780765867</v>
+        <v>0.9884898794230036</v>
       </c>
       <c r="D14">
-        <v>1.059968607795129</v>
+        <v>1.012757519178991</v>
       </c>
       <c r="E14">
-        <v>1.064096483240175</v>
+        <v>1.007085630916804</v>
       </c>
       <c r="F14">
-        <v>1.072713253305907</v>
+        <v>1.017874956421525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043943619592826</v>
+        <v>1.041912705797267</v>
       </c>
       <c r="J14">
-        <v>1.065360385902346</v>
+        <v>1.018385808993984</v>
       </c>
       <c r="K14">
-        <v>1.063452696963267</v>
+        <v>1.027459450790655</v>
       </c>
       <c r="L14">
-        <v>1.067566069587149</v>
+        <v>1.021891943604232</v>
       </c>
       <c r="M14">
-        <v>1.076152961441203</v>
+        <v>1.032484008251176</v>
       </c>
       <c r="N14">
-        <v>1.066873319848872</v>
+        <v>1.01983203365324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05910794135531</v>
+        <v>0.9893789412865962</v>
       </c>
       <c r="D15">
-        <v>1.060085198996559</v>
+        <v>1.013413537984475</v>
       </c>
       <c r="E15">
-        <v>1.064230084385265</v>
+        <v>1.007818338535524</v>
       </c>
       <c r="F15">
-        <v>1.07284553562835</v>
+        <v>1.018602434758863</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043978390794884</v>
+        <v>1.042164481096378</v>
       </c>
       <c r="J15">
-        <v>1.065478661690536</v>
+        <v>1.019046534185907</v>
       </c>
       <c r="K15">
-        <v>1.063549883678081</v>
+        <v>1.028016303950294</v>
       </c>
       <c r="L15">
-        <v>1.067680294596634</v>
+        <v>1.022523186550687</v>
       </c>
       <c r="M15">
-        <v>1.0762660532169</v>
+        <v>1.03311183301918</v>
       </c>
       <c r="N15">
-        <v>1.066991763602247</v>
+        <v>1.020493697150722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06001074433281</v>
+        <v>0.9944823966311431</v>
       </c>
       <c r="D16">
-        <v>1.060763493985261</v>
+        <v>1.017182062396449</v>
       </c>
       <c r="E16">
-        <v>1.065007521536212</v>
+        <v>1.012028111418626</v>
       </c>
       <c r="F16">
-        <v>1.073615274112207</v>
+        <v>1.022782424048177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044180142446692</v>
+        <v>1.043606201463116</v>
       </c>
       <c r="J16">
-        <v>1.066166628291537</v>
+        <v>1.022839159311575</v>
       </c>
       <c r="K16">
-        <v>1.064115016440113</v>
+        <v>1.031212080146959</v>
       </c>
       <c r="L16">
-        <v>1.068344747852533</v>
+        <v>1.026147488223901</v>
       </c>
       <c r="M16">
-        <v>1.076923885757473</v>
+        <v>1.036716660953864</v>
       </c>
       <c r="N16">
-        <v>1.067680707194732</v>
+        <v>1.024291708239089</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060576790500691</v>
+        <v>0.9976232937348063</v>
       </c>
       <c r="D17">
-        <v>1.061188694772217</v>
+        <v>1.019503674229954</v>
       </c>
       <c r="E17">
-        <v>1.065495032750744</v>
+        <v>1.014622214719542</v>
       </c>
       <c r="F17">
-        <v>1.07409793611743</v>
+        <v>1.025358378509023</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044306140564179</v>
+        <v>1.044490315984979</v>
       </c>
       <c r="J17">
-        <v>1.066597778915736</v>
+        <v>1.025173112640199</v>
       </c>
       <c r="K17">
-        <v>1.064469039899362</v>
+        <v>1.033178162164716</v>
       </c>
       <c r="L17">
-        <v>1.068761205203377</v>
+        <v>1.028378630582198</v>
       </c>
       <c r="M17">
-        <v>1.077336168108797</v>
+        <v>1.038935927384971</v>
       </c>
       <c r="N17">
-        <v>1.068112470102272</v>
+        <v>1.026628976049148</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06090686446417</v>
+        <v>0.9994344794287999</v>
       </c>
       <c r="D18">
-        <v>1.061436608908673</v>
+        <v>1.020843185636537</v>
       </c>
       <c r="E18">
-        <v>1.06577933539337</v>
+        <v>1.016119198950636</v>
       </c>
       <c r="F18">
-        <v>1.074379403006219</v>
+        <v>1.026844953558385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044379433412178</v>
+        <v>1.044998958569137</v>
       </c>
       <c r="J18">
-        <v>1.066849121592768</v>
+        <v>1.026518868487264</v>
       </c>
       <c r="K18">
-        <v>1.064675367665563</v>
+        <v>1.034311582649454</v>
       </c>
       <c r="L18">
-        <v>1.069003997620911</v>
+        <v>1.029665376207529</v>
       </c>
       <c r="M18">
-        <v>1.077576517331142</v>
+        <v>1.040215856386251</v>
       </c>
       <c r="N18">
-        <v>1.068364169714734</v>
+        <v>1.027976643023876</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061019395865715</v>
+        <v>1.000048593212939</v>
       </c>
       <c r="D19">
-        <v>1.061521124652177</v>
+        <v>1.021297494008665</v>
       </c>
       <c r="E19">
-        <v>1.065876266141974</v>
+        <v>1.016626959915083</v>
       </c>
       <c r="F19">
-        <v>1.074475365592551</v>
+        <v>1.027349193839011</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044404390542375</v>
+        <v>1.04517121974161</v>
       </c>
       <c r="J19">
-        <v>1.066934799295234</v>
+        <v>1.026975148379412</v>
       </c>
       <c r="K19">
-        <v>1.064745691680989</v>
+        <v>1.03469583123088</v>
       </c>
       <c r="L19">
-        <v>1.069086763300865</v>
+        <v>1.030101693788072</v>
       </c>
       <c r="M19">
-        <v>1.077658448583993</v>
+        <v>1.040649867330626</v>
       </c>
       <c r="N19">
-        <v>1.068449969089365</v>
+        <v>1.028433570885807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060516068580253</v>
+        <v>0.997288481217764</v>
       </c>
       <c r="D20">
-        <v>1.061143084943833</v>
+        <v>1.019256115025253</v>
       </c>
       <c r="E20">
-        <v>1.065442733068745</v>
+        <v>1.014345573220535</v>
       </c>
       <c r="F20">
-        <v>1.074046157462349</v>
+        <v>1.025083665591833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044292642826805</v>
+        <v>1.044396193098739</v>
       </c>
       <c r="J20">
-        <v>1.066551535065273</v>
+        <v>1.024924329005534</v>
       </c>
       <c r="K20">
-        <v>1.06443107394721</v>
+        <v>1.032968613773189</v>
       </c>
       <c r="L20">
-        <v>1.068716535722688</v>
+        <v>1.028140777622344</v>
       </c>
       <c r="M20">
-        <v>1.077291947390972</v>
+        <v>1.038699336922324</v>
       </c>
       <c r="N20">
-        <v>1.068066160580236</v>
+        <v>1.026379839113185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058878617853607</v>
+        <v>0.9880636668468625</v>
       </c>
       <c r="D21">
-        <v>1.059912878485749</v>
+        <v>1.012443078968677</v>
       </c>
       <c r="E21">
-        <v>1.064032626595566</v>
+        <v>1.006734444599795</v>
       </c>
       <c r="F21">
-        <v>1.07265002658474</v>
+        <v>1.01752628153669</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043926989847267</v>
+        <v>1.041791943705051</v>
       </c>
       <c r="J21">
-        <v>1.065303849096189</v>
+        <v>1.018069059449896</v>
       </c>
       <c r="K21">
-        <v>1.063406237970801</v>
+        <v>1.027192486734729</v>
       </c>
       <c r="L21">
-        <v>1.067511469946285</v>
+        <v>1.021589344308655</v>
       </c>
       <c r="M21">
-        <v>1.076098902983109</v>
+        <v>1.032183050555574</v>
       </c>
       <c r="N21">
-        <v>1.066816702753965</v>
+        <v>1.019514834288468</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05784822548689</v>
+        <v>0.9820555668919688</v>
       </c>
       <c r="D22">
-        <v>1.059138490152263</v>
+        <v>1.008014287528435</v>
       </c>
       <c r="E22">
-        <v>1.063145518643713</v>
+        <v>1.001788859553257</v>
       </c>
       <c r="F22">
-        <v>1.071771641457792</v>
+        <v>1.012616430777405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043695280954021</v>
+        <v>1.040085553995174</v>
       </c>
       <c r="J22">
-        <v>1.0645180882296</v>
+        <v>1.013604075400669</v>
       </c>
       <c r="K22">
-        <v>1.062760346095205</v>
+        <v>1.023428634298132</v>
       </c>
       <c r="L22">
-        <v>1.066752689391985</v>
+        <v>1.017324961886958</v>
       </c>
       <c r="M22">
-        <v>1.075347610061107</v>
+        <v>1.027942029592038</v>
       </c>
       <c r="N22">
-        <v>1.066029826016818</v>
+        <v>1.01504350944975</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05839453966496</v>
+        <v>0.9852613551668826</v>
       </c>
       <c r="D23">
-        <v>1.059549095323443</v>
+        <v>1.010376520320589</v>
       </c>
       <c r="E23">
-        <v>1.063615841816378</v>
+        <v>1.004426569410707</v>
       </c>
       <c r="F23">
-        <v>1.072237346506941</v>
+        <v>1.015234994542415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043818286073557</v>
+        <v>1.040996969667177</v>
       </c>
       <c r="J23">
-        <v>1.064934758692391</v>
+        <v>1.015986463112748</v>
       </c>
       <c r="K23">
-        <v>1.063102892348974</v>
+        <v>1.025437064814501</v>
       </c>
       <c r="L23">
-        <v>1.067155039587934</v>
+        <v>1.019600050848721</v>
       </c>
       <c r="M23">
-        <v>1.075745997558495</v>
+        <v>1.030204600297033</v>
       </c>
       <c r="N23">
-        <v>1.066447088199458</v>
+        <v>1.017429280425644</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06054350648376</v>
+        <v>0.9974398327904311</v>
       </c>
       <c r="D24">
-        <v>1.061163694365592</v>
+        <v>1.019368021493593</v>
       </c>
       <c r="E24">
-        <v>1.065466365211736</v>
+        <v>1.014470625240003</v>
       </c>
       <c r="F24">
-        <v>1.074069554198259</v>
+        <v>1.025207845625753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044298742490378</v>
+        <v>1.044438744897061</v>
       </c>
       <c r="J24">
-        <v>1.066572431103697</v>
+        <v>1.025036791678555</v>
       </c>
       <c r="K24">
-        <v>1.0644482296461</v>
+        <v>1.033063340839413</v>
       </c>
       <c r="L24">
-        <v>1.068736720309172</v>
+        <v>1.028248298244347</v>
       </c>
       <c r="M24">
-        <v>1.07731192922554</v>
+        <v>1.038806286737842</v>
       </c>
       <c r="N24">
-        <v>1.068087086293432</v>
+        <v>1.026492461496102</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063033706169958</v>
+        <v>1.010762091987325</v>
       </c>
       <c r="D25">
-        <v>1.06303350263614</v>
+        <v>1.029232644936541</v>
       </c>
       <c r="E25">
-        <v>1.06761167461338</v>
+        <v>1.025499803324345</v>
       </c>
       <c r="F25">
-        <v>1.07619332241316</v>
+        <v>1.036161205098683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044848455236036</v>
+        <v>1.048158398166173</v>
       </c>
       <c r="J25">
-        <v>1.068467373700393</v>
+        <v>1.034932618769579</v>
       </c>
       <c r="K25">
-        <v>1.066002834481693</v>
+        <v>1.041393498525523</v>
       </c>
       <c r="L25">
-        <v>1.070567474064155</v>
+        <v>1.037714756323098</v>
       </c>
       <c r="M25">
-        <v>1.079124093036629</v>
+        <v>1.048222950992643</v>
       </c>
       <c r="N25">
-        <v>1.069984719925969</v>
+        <v>1.036402341796663</v>
       </c>
     </row>
   </sheetData>
